--- a/guestList_YeWeon.xlsx
+++ b/guestList_YeWeon.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhan/Creative Cloud Files/Projects/Personal/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D689B3D6-4650-4E4E-A079-C2D5AE11450D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18686BBE-20A7-DE4A-9E08-5628392A0CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20620" xr2:uid="{01375C74-F412-1441-B63E-FFE89AB15C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="values" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="143">
   <si>
     <t>아라</t>
   </si>
@@ -224,13 +226,253 @@
   </si>
   <si>
     <t>bujoDefault</t>
+  </si>
+  <si>
+    <t>가족</t>
+  </si>
+  <si>
+    <t>친구100</t>
+  </si>
+  <si>
+    <t>교회</t>
+  </si>
+  <si>
+    <t>부모님친구</t>
+  </si>
+  <si>
+    <t>샬롯</t>
+  </si>
+  <si>
+    <t>교회50</t>
+  </si>
+  <si>
+    <t>일</t>
+  </si>
+  <si>
+    <t>한현구</t>
+  </si>
+  <si>
+    <t>임승재</t>
+  </si>
+  <si>
+    <t>강무환</t>
+  </si>
+  <si>
+    <t>정아영</t>
+  </si>
+  <si>
+    <t>한혜린</t>
+  </si>
+  <si>
+    <t>김가람</t>
+  </si>
+  <si>
+    <t>권주은</t>
+  </si>
+  <si>
+    <t>정윤주</t>
+  </si>
+  <si>
+    <t>홍성찬</t>
+  </si>
+  <si>
+    <t>성윤호</t>
+  </si>
+  <si>
+    <t>정윤정</t>
+  </si>
+  <si>
+    <t>이창민</t>
+  </si>
+  <si>
+    <t>어머니</t>
+  </si>
+  <si>
+    <t>박창후</t>
+  </si>
+  <si>
+    <t>김가을</t>
+  </si>
+  <si>
+    <t>심은지</t>
+  </si>
+  <si>
+    <t>김민성</t>
+  </si>
+  <si>
+    <t>지,</t>
+  </si>
+  <si>
+    <t>아버지</t>
+  </si>
+  <si>
+    <t>진영</t>
+  </si>
+  <si>
+    <t>지남편</t>
+  </si>
+  <si>
+    <t>오빠</t>
+  </si>
+  <si>
+    <t>이민우</t>
+  </si>
+  <si>
+    <t>진영남편</t>
+  </si>
+  <si>
+    <t>브리아나</t>
+  </si>
+  <si>
+    <t>전도사</t>
+  </si>
+  <si>
+    <t>타샤</t>
+  </si>
+  <si>
+    <t>김영제</t>
+  </si>
+  <si>
+    <t>사모</t>
+  </si>
+  <si>
+    <t>박성진</t>
+  </si>
+  <si>
+    <t>도날드</t>
+  </si>
+  <si>
+    <t>공진</t>
+  </si>
+  <si>
+    <t>자스민</t>
+  </si>
+  <si>
+    <t>공전도사</t>
+  </si>
+  <si>
+    <t>박누리 &amp; 승권</t>
+  </si>
+  <si>
+    <t>정언주</t>
+  </si>
+  <si>
+    <t>한재호 &amp; 이경진</t>
+  </si>
+  <si>
+    <t>홍수경 &amp; 병관형</t>
+  </si>
+  <si>
+    <t>이선희 &amp; 남친</t>
+  </si>
+  <si>
+    <t>심현지 &amp; 남편 &amp; 애기</t>
+  </si>
+  <si>
+    <t>이은혁 &amp; 지애</t>
+  </si>
+  <si>
+    <t>Davis &amp; Tina</t>
+  </si>
+  <si>
+    <t>Dimitri &amp; Emily</t>
+  </si>
+  <si>
+    <t>Brett &amp; Katia</t>
+  </si>
+  <si>
+    <t>Hanna &amp; Jodi</t>
+  </si>
+  <si>
+    <t>Adele &amp; Husband</t>
+  </si>
+  <si>
+    <t>Matt &amp; Heather</t>
+  </si>
+  <si>
+    <t>대학원</t>
+  </si>
+  <si>
+    <t>미국친구</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henrik &amp; </t>
+  </si>
+  <si>
+    <t>Carlos &amp;</t>
+  </si>
+  <si>
+    <t>Jenny &amp; Elavator</t>
+  </si>
+  <si>
+    <t>김인옥 &amp; 김실비아</t>
+  </si>
+  <si>
+    <t>사관 &amp; 사관</t>
+  </si>
+  <si>
+    <t>정광범 &amp; 오애경</t>
+  </si>
+  <si>
+    <t>홍영칠 &amp; 송향숙</t>
+  </si>
+  <si>
+    <t>성명화 &amp; 방준영</t>
+  </si>
+  <si>
+    <t>박진형</t>
+  </si>
+  <si>
+    <t>노병섭 &amp; 사모님</t>
+  </si>
+  <si>
+    <t>경상도 &amp; 말술할배</t>
+  </si>
+  <si>
+    <t>임미연 &amp; 이문영 &amp; 제이슨</t>
+  </si>
+  <si>
+    <t>김태희 &amp; 사모님</t>
+  </si>
+  <si>
+    <t>조남식</t>
+  </si>
+  <si>
+    <t>김미선</t>
+  </si>
+  <si>
+    <t>박영철 &amp; 남혜원 &amp; 박승일 &amp; 박승민</t>
+  </si>
+  <si>
+    <t>유신종 &amp; 남편</t>
+  </si>
+  <si>
+    <t>이옥자 &amp; 남편</t>
+  </si>
+  <si>
+    <t>백교수 &amp; 사모님</t>
+  </si>
+  <si>
+    <t>장종훈 &amp; 사모님</t>
+  </si>
+  <si>
+    <t>김정현 &amp; 사모님</t>
+  </si>
+  <si>
+    <t>심장로 &amp; 사모님</t>
+  </si>
+  <si>
+    <t>조경화 &amp; 사장님</t>
+  </si>
+  <si>
+    <t>김기범 &amp; 최진영 &amp; 김선호 &amp; 김세인</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,19 +494,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -279,13 +555,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,16 +884,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973AD954-86FE-6C46-94BA-919C36D5C836}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.83203125" style="3"/>
-    <col min="12" max="12" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="10"/>
+    <col min="8" max="9" width="10.83203125" style="9"/>
+    <col min="10" max="11" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="44.1640625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -627,19 +911,19 @@
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>58</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -648,247 +932,247 @@
       <c r="K1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2001</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2979</v>
-      </c>
-      <c r="J2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="str">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2009</v>
+      </c>
+      <c r="I2" s="8">
+        <v>8881</v>
+      </c>
+      <c r="J2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H2,"&amp;pw=",I2)</f>
-        <v>https://yeweon-junghoon.com/?id=2001&amp;pw=2979</v>
+        <v>https://yeweon-junghoon.com/?id=2009&amp;pw=8881</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="E3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2002</v>
-      </c>
-      <c r="I3" s="4">
-        <v>7521</v>
-      </c>
-      <c r="J3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="str">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2010</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2656</v>
+      </c>
+      <c r="J3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H3,"&amp;pw=",I3)</f>
-        <v>https://yeweon-junghoon.com/?id=2002&amp;pw=7521</v>
+        <v>https://yeweon-junghoon.com/?id=2010&amp;pw=2656</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
         <v>1</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="3">
-        <v>2003</v>
-      </c>
-      <c r="I4" s="4">
-        <v>6518</v>
-      </c>
-      <c r="J4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="str">
+      <c r="H4" s="9">
+        <v>2011</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2908</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H4,"&amp;pw=",I4)</f>
-        <v>https://yeweon-junghoon.com/?id=2003&amp;pw=6518</v>
+        <v>https://yeweon-junghoon.com/?id=2011&amp;pw=2908</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2004</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2544</v>
-      </c>
-      <c r="J5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="str">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>2012</v>
+      </c>
+      <c r="I5" s="8">
+        <v>3255</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H5,"&amp;pw=",I5)</f>
-        <v>https://yeweon-junghoon.com/?id=2004&amp;pw=2544</v>
+        <v>https://yeweon-junghoon.com/?id=2012&amp;pw=3255</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
         <v>1</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
-        <v>2007</v>
-      </c>
-      <c r="I6" s="4">
-        <v>6314</v>
-      </c>
-      <c r="J6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="str">
+      <c r="H6" s="9">
+        <v>2013</v>
+      </c>
+      <c r="I6" s="8">
+        <v>6718</v>
+      </c>
+      <c r="J6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H6,"&amp;pw=",I6)</f>
-        <v>https://yeweon-junghoon.com/?id=2007&amp;pw=6314</v>
+        <v>https://yeweon-junghoon.com/?id=2013&amp;pw=6718</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
         <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="3">
-        <v>2008</v>
-      </c>
-      <c r="I7" s="4">
-        <v>6594</v>
-      </c>
-      <c r="J7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="str">
+      <c r="H7" s="9">
+        <v>2016</v>
+      </c>
+      <c r="I7" s="8">
+        <v>7214</v>
+      </c>
+      <c r="J7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H7,"&amp;pw=",I7)</f>
-        <v>https://yeweon-junghoon.com/?id=2008&amp;pw=6594</v>
+        <v>https://yeweon-junghoon.com/?id=2016&amp;pw=7214</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>0</v>
@@ -897,37 +1181,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2009</v>
-      </c>
-      <c r="I8" s="4">
-        <v>8881</v>
-      </c>
-      <c r="J8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="str">
+        <v>2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2018</v>
+      </c>
+      <c r="I8" s="8">
+        <v>4012</v>
+      </c>
+      <c r="J8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H8,"&amp;pw=",I8)</f>
-        <v>https://yeweon-junghoon.com/?id=2009&amp;pw=8881</v>
+        <v>https://yeweon-junghoon.com/?id=2018&amp;pw=4012</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>0</v>
@@ -938,35 +1222,35 @@
       <c r="D9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
+      <c r="E9" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2010</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2656</v>
-      </c>
-      <c r="J9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="str">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2019</v>
+      </c>
+      <c r="I9" s="8">
+        <v>8987</v>
+      </c>
+      <c r="J9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H9,"&amp;pw=",I9)</f>
-        <v>https://yeweon-junghoon.com/?id=2010&amp;pw=2656</v>
+        <v>https://yeweon-junghoon.com/?id=2019&amp;pw=8987</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>0</v>
@@ -975,79 +1259,79 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
         <v>1</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="H10" s="3">
-        <v>2011</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2908</v>
-      </c>
-      <c r="J10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="str">
+      <c r="H10" s="9">
+        <v>2020</v>
+      </c>
+      <c r="I10" s="8">
+        <v>5204</v>
+      </c>
+      <c r="J10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H10,"&amp;pw=",I10)</f>
-        <v>https://yeweon-junghoon.com/?id=2011&amp;pw=2908</v>
+        <v>https://yeweon-junghoon.com/?id=2020&amp;pw=5204</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
         <v>1</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="H11" s="3">
-        <v>2012</v>
-      </c>
-      <c r="I11" s="4">
-        <v>3255</v>
-      </c>
-      <c r="J11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="str">
+      <c r="H11" s="9">
+        <v>2021</v>
+      </c>
+      <c r="I11" s="8">
+        <v>5872</v>
+      </c>
+      <c r="J11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H11,"&amp;pw=",I11)</f>
-        <v>https://yeweon-junghoon.com/?id=2012&amp;pw=3255</v>
+        <v>https://yeweon-junghoon.com/?id=2021&amp;pw=5872</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1055,152 +1339,152 @@
       <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
         <v>1</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
-      <c r="H12" s="3">
-        <v>2013</v>
-      </c>
-      <c r="I12" s="4">
-        <v>6718</v>
-      </c>
-      <c r="J12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="str">
+      <c r="H12" s="9">
+        <v>2022</v>
+      </c>
+      <c r="I12" s="8">
+        <v>4947</v>
+      </c>
+      <c r="J12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H12,"&amp;pw=",I12)</f>
-        <v>https://yeweon-junghoon.com/?id=2013&amp;pw=6718</v>
+        <v>https://yeweon-junghoon.com/?id=2022&amp;pw=4947</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+      <c r="E13" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="H13" s="3">
-        <v>2014</v>
-      </c>
-      <c r="I13" s="4">
-        <v>9891</v>
-      </c>
-      <c r="J13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" t="str">
+      <c r="H13" s="9">
+        <v>2023</v>
+      </c>
+      <c r="I13" s="8">
+        <v>8724</v>
+      </c>
+      <c r="J13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H13,"&amp;pw=",I13)</f>
-        <v>https://yeweon-junghoon.com/?id=2014&amp;pw=9891</v>
+        <v>https://yeweon-junghoon.com/?id=2023&amp;pw=8724</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
         <v>1</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="H14" s="3">
-        <v>2015</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2492</v>
-      </c>
-      <c r="J14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="str">
+      <c r="H14" s="9">
+        <v>2024</v>
+      </c>
+      <c r="I14" s="8">
+        <v>2515</v>
+      </c>
+      <c r="J14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H14,"&amp;pw=",I14)</f>
-        <v>https://yeweon-junghoon.com/?id=2015&amp;pw=2492</v>
+        <v>https://yeweon-junghoon.com/?id=2024&amp;pw=2515</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
         <v>2</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="H15" s="3">
-        <v>2017</v>
-      </c>
-      <c r="I15" s="4">
-        <v>4078</v>
-      </c>
-      <c r="J15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="str">
+      <c r="H15" s="9">
+        <v>2025</v>
+      </c>
+      <c r="I15" s="8">
+        <v>5121</v>
+      </c>
+      <c r="J15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H15,"&amp;pw=",I15)</f>
-        <v>https://yeweon-junghoon.com/?id=2017&amp;pw=4078</v>
+        <v>https://yeweon-junghoon.com/?id=2025&amp;pw=5121</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="b">
         <v>0</v>
@@ -1211,35 +1495,35 @@
       <c r="D16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
         <v>1</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="H16" s="3">
-        <v>2018</v>
-      </c>
-      <c r="I16" s="4">
-        <v>4012</v>
-      </c>
-      <c r="J16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="str">
+      <c r="H16" s="9">
+        <v>2026</v>
+      </c>
+      <c r="I16" s="8">
+        <v>5529</v>
+      </c>
+      <c r="J16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H16,"&amp;pw=",I16)</f>
-        <v>https://yeweon-junghoon.com/?id=2018&amp;pw=4012</v>
+        <v>https://yeweon-junghoon.com/?id=2026&amp;pw=5529</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="b">
         <v>0</v>
@@ -1250,35 +1534,35 @@
       <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
+      <c r="E17" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>2</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
-      <c r="H17" s="3">
-        <v>2019</v>
-      </c>
-      <c r="I17" s="4">
-        <v>8987</v>
-      </c>
-      <c r="J17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" t="str">
+      <c r="H17" s="9">
+        <v>2027</v>
+      </c>
+      <c r="I17" s="8">
+        <v>9557</v>
+      </c>
+      <c r="J17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H17,"&amp;pw=",I17)</f>
-        <v>https://yeweon-junghoon.com/?id=2019&amp;pw=8987</v>
+        <v>https://yeweon-junghoon.com/?id=2027&amp;pw=9557</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>0</v>
@@ -1287,40 +1571,40 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
         <v>1</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="3">
-        <v>2020</v>
-      </c>
-      <c r="I18" s="4">
-        <v>5204</v>
-      </c>
-      <c r="J18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" t="str">
+      <c r="H18" s="9">
+        <v>2029</v>
+      </c>
+      <c r="I18" s="8">
+        <v>9348</v>
+      </c>
+      <c r="J18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H18,"&amp;pw=",I18)</f>
-        <v>https://yeweon-junghoon.com/?id=2020&amp;pw=5204</v>
+        <v>https://yeweon-junghoon.com/?id=2029&amp;pw=9348</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1328,35 +1612,35 @@
       <c r="D19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
+      <c r="E19" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
-      <c r="H19" s="3">
-        <v>2025</v>
-      </c>
-      <c r="I19" s="4">
-        <v>5121</v>
-      </c>
-      <c r="J19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" t="str">
+      <c r="H19" s="9">
+        <v>2030</v>
+      </c>
+      <c r="I19" s="8">
+        <v>2276</v>
+      </c>
+      <c r="J19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H19,"&amp;pw=",I19)</f>
-        <v>https://yeweon-junghoon.com/?id=2025&amp;pw=5121</v>
+        <v>https://yeweon-junghoon.com/?id=2030&amp;pw=2276</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>0</v>
@@ -1367,35 +1651,35 @@
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
         <v>1</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
-      <c r="H20" s="3">
-        <v>2026</v>
-      </c>
-      <c r="I20" s="4">
-        <v>5529</v>
-      </c>
-      <c r="J20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" t="str">
+      <c r="H20" s="9">
+        <v>2051</v>
+      </c>
+      <c r="I20" s="8">
+        <v>3356</v>
+      </c>
+      <c r="J20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H20,"&amp;pw=",I20)</f>
-        <v>https://yeweon-junghoon.com/?id=2026&amp;pw=5529</v>
+        <v>https://yeweon-junghoon.com/?id=2051&amp;pw=3356</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="b">
         <v>0</v>
@@ -1406,77 +1690,77 @@
       <c r="D21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
         <v>2</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
-      <c r="H21" s="3">
-        <v>2027</v>
-      </c>
-      <c r="I21" s="4">
-        <v>9557</v>
-      </c>
-      <c r="J21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" t="str">
+      <c r="H21" s="9">
+        <v>2031</v>
+      </c>
+      <c r="I21" s="8">
+        <v>9471</v>
+      </c>
+      <c r="J21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H21,"&amp;pw=",I21)</f>
-        <v>https://yeweon-junghoon.com/?id=2027&amp;pw=9557</v>
+        <v>https://yeweon-junghoon.com/?id=2031&amp;pw=9471</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
         <v>1</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
-      <c r="H22" s="3">
-        <v>2028</v>
-      </c>
-      <c r="I22" s="4">
-        <v>8396</v>
-      </c>
-      <c r="J22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" t="str">
+      <c r="H22" s="9">
+        <v>2032</v>
+      </c>
+      <c r="I22" s="8">
+        <v>2252</v>
+      </c>
+      <c r="J22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H22,"&amp;pw=",I22)</f>
-        <v>https://yeweon-junghoon.com/?id=2028&amp;pw=8396</v>
+        <v>https://yeweon-junghoon.com/?id=2032&amp;pw=2252</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -1484,74 +1768,74 @@
       <c r="D23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
+      <c r="E23" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
+        <v>2</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
-      <c r="H23" s="3">
-        <v>2029</v>
-      </c>
-      <c r="I23" s="4">
-        <v>9348</v>
-      </c>
-      <c r="J23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" t="str">
+      <c r="H23" s="9">
+        <v>2033</v>
+      </c>
+      <c r="I23" s="8">
+        <v>4408</v>
+      </c>
+      <c r="J23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H23,"&amp;pw=",I23)</f>
-        <v>https://yeweon-junghoon.com/?id=2029&amp;pw=9348</v>
+        <v>https://yeweon-junghoon.com/?id=2033&amp;pw=4408</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
-      <c r="H24" s="3">
-        <v>2031</v>
-      </c>
-      <c r="I24" s="4">
-        <v>9471</v>
-      </c>
-      <c r="J24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" t="str">
+      <c r="H24" s="9">
+        <v>2034</v>
+      </c>
+      <c r="I24" s="8">
+        <v>6838</v>
+      </c>
+      <c r="J24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H24,"&amp;pw=",I24)</f>
-        <v>https://yeweon-junghoon.com/?id=2031&amp;pw=9471</v>
+        <v>https://yeweon-junghoon.com/?id=2034&amp;pw=6838</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>0</v>
@@ -1562,38 +1846,38 @@
       <c r="D25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
         <v>1</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
-      <c r="H25" s="3">
-        <v>2032</v>
-      </c>
-      <c r="I25" s="4">
-        <v>2252</v>
-      </c>
-      <c r="J25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" t="str">
+      <c r="H25" s="9">
+        <v>2035</v>
+      </c>
+      <c r="I25" s="8">
+        <v>3752</v>
+      </c>
+      <c r="J25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H25,"&amp;pw=",I25)</f>
-        <v>https://yeweon-junghoon.com/?id=2032&amp;pw=2252</v>
+        <v>https://yeweon-junghoon.com/?id=2035&amp;pw=3752</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -1601,38 +1885,38 @@
       <c r="D26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26">
+      <c r="E26" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
         <v>1</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
-      <c r="H26" s="3">
-        <v>2035</v>
-      </c>
-      <c r="I26" s="4">
-        <v>3752</v>
-      </c>
-      <c r="J26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" t="str">
+      <c r="H26" s="9">
+        <v>2036</v>
+      </c>
+      <c r="I26" s="8">
+        <v>4805</v>
+      </c>
+      <c r="J26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H26,"&amp;pw=",I26)</f>
-        <v>https://yeweon-junghoon.com/?id=2035&amp;pw=3752</v>
+        <v>https://yeweon-junghoon.com/?id=2036&amp;pw=4805</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -1640,38 +1924,38 @@
       <c r="D27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
+      <c r="E27" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
-      <c r="H27" s="3">
-        <v>2039</v>
-      </c>
-      <c r="I27" s="4">
-        <v>4189</v>
-      </c>
-      <c r="J27" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" t="str">
+      <c r="H27" s="9">
+        <v>2037</v>
+      </c>
+      <c r="I27" s="8">
+        <v>2889</v>
+      </c>
+      <c r="J27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H27,"&amp;pw=",I27)</f>
-        <v>https://yeweon-junghoon.com/?id=2039&amp;pw=4189</v>
+        <v>https://yeweon-junghoon.com/?id=2037&amp;pw=2889</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -1679,35 +1963,35 @@
       <c r="D28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
         <v>1</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
-      <c r="H28" s="3">
-        <v>2040</v>
-      </c>
-      <c r="I28" s="4">
-        <v>7645</v>
-      </c>
-      <c r="J28" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" t="str">
+      <c r="H28" s="9">
+        <v>2038</v>
+      </c>
+      <c r="I28" s="8">
+        <v>7970</v>
+      </c>
+      <c r="J28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H28,"&amp;pw=",I28)</f>
-        <v>https://yeweon-junghoon.com/?id=2040&amp;pw=7645</v>
+        <v>https://yeweon-junghoon.com/?id=2038&amp;pw=7970</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>0</v>
@@ -1718,35 +2002,35 @@
       <c r="D29" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
+      <c r="E29" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>2</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
-      <c r="H29" s="3">
-        <v>2041</v>
-      </c>
-      <c r="I29" s="4">
-        <v>1303</v>
-      </c>
-      <c r="J29" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" t="str">
+      <c r="H29" s="9">
+        <v>2039</v>
+      </c>
+      <c r="I29" s="8">
+        <v>4189</v>
+      </c>
+      <c r="J29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H29,"&amp;pw=",I29)</f>
-        <v>https://yeweon-junghoon.com/?id=2041&amp;pw=1303</v>
+        <v>https://yeweon-junghoon.com/?id=2039&amp;pw=4189</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1" t="b">
         <v>0</v>
@@ -1755,37 +2039,37 @@
         <v>0</v>
       </c>
       <c r="D30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E30" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
-      <c r="H30" s="3">
-        <v>2042</v>
-      </c>
-      <c r="I30" s="4">
-        <v>2479</v>
-      </c>
-      <c r="J30" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" t="str">
+      <c r="H30" s="9">
+        <v>2040</v>
+      </c>
+      <c r="I30" s="8">
+        <v>7645</v>
+      </c>
+      <c r="J30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H30,"&amp;pw=",I30)</f>
-        <v>https://yeweon-junghoon.com/?id=2042&amp;pw=2479</v>
+        <v>https://yeweon-junghoon.com/?id=2040&amp;pw=7645</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1" t="b">
         <v>0</v>
@@ -1796,35 +2080,35 @@
       <c r="D31" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
         <v>1</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
-      <c r="H31" s="3">
-        <v>2043</v>
-      </c>
-      <c r="I31" s="4">
-        <v>5484</v>
-      </c>
-      <c r="J31" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" t="str">
+      <c r="H31" s="9">
+        <v>2041</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1303</v>
+      </c>
+      <c r="J31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H31,"&amp;pw=",I31)</f>
-        <v>https://yeweon-junghoon.com/?id=2043&amp;pw=5484</v>
+        <v>https://yeweon-junghoon.com/?id=2041&amp;pw=1303</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1" t="b">
         <v>0</v>
@@ -1835,35 +2119,35 @@
       <c r="D32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
+      <c r="E32" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>2</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
-      <c r="H32" s="3">
-        <v>2044</v>
-      </c>
-      <c r="I32" s="4">
-        <v>2428</v>
-      </c>
-      <c r="J32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" t="str">
+      <c r="H32" s="9">
+        <v>2042</v>
+      </c>
+      <c r="I32" s="8">
+        <v>2479</v>
+      </c>
+      <c r="J32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H32,"&amp;pw=",I32)</f>
-        <v>https://yeweon-junghoon.com/?id=2044&amp;pw=2428</v>
+        <v>https://yeweon-junghoon.com/?id=2042&amp;pw=2479</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>0</v>
@@ -1874,35 +2158,35 @@
       <c r="D33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
+      <c r="E33" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
-      <c r="H33" s="3">
-        <v>2046</v>
-      </c>
-      <c r="I33" s="4">
-        <v>9539</v>
-      </c>
-      <c r="J33" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" t="str">
+      <c r="H33" s="9">
+        <v>2043</v>
+      </c>
+      <c r="I33" s="8">
+        <v>5484</v>
+      </c>
+      <c r="J33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H33,"&amp;pw=",I33)</f>
-        <v>https://yeweon-junghoon.com/?id=2046&amp;pw=9539</v>
+        <v>https://yeweon-junghoon.com/?id=2043&amp;pw=5484</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>0</v>
@@ -1913,74 +2197,74 @@
       <c r="D34" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
+      <c r="E34" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
-      <c r="H34" s="3">
-        <v>2047</v>
-      </c>
-      <c r="I34" s="4">
-        <v>7624</v>
-      </c>
-      <c r="J34" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" t="str">
+      <c r="H34" s="9">
+        <v>2044</v>
+      </c>
+      <c r="I34" s="8">
+        <v>2428</v>
+      </c>
+      <c r="J34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H34,"&amp;pw=",I34)</f>
-        <v>https://yeweon-junghoon.com/?id=2047&amp;pw=7624</v>
+        <v>https://yeweon-junghoon.com/?id=2044&amp;pw=2428</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
+      <c r="E35" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="10">
+        <v>2</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
-      <c r="H35" s="3">
-        <v>2049</v>
-      </c>
-      <c r="I35" s="4">
-        <v>2925</v>
-      </c>
-      <c r="J35" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" t="str">
+      <c r="H35" s="9">
+        <v>2045</v>
+      </c>
+      <c r="I35" s="8">
+        <v>1261</v>
+      </c>
+      <c r="J35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H35,"&amp;pw=",I35)</f>
-        <v>https://yeweon-junghoon.com/?id=2049&amp;pw=2925</v>
+        <v>https://yeweon-junghoon.com/?id=2045&amp;pw=1261</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B36" s="1" t="b">
         <v>0</v>
@@ -1991,113 +2275,113 @@
       <c r="D36" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
+      <c r="E36" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>2</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
-      <c r="H36" s="3">
-        <v>2051</v>
-      </c>
-      <c r="I36" s="4">
-        <v>3356</v>
-      </c>
-      <c r="J36" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" t="str">
+      <c r="H36" s="9">
+        <v>2046</v>
+      </c>
+      <c r="I36" s="8">
+        <v>9539</v>
+      </c>
+      <c r="J36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H36,"&amp;pw=",I36)</f>
-        <v>https://yeweon-junghoon.com/?id=2051&amp;pw=3356</v>
+        <v>https://yeweon-junghoon.com/?id=2046&amp;pw=9539</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E37" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10">
+        <v>2</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
-      <c r="H37" s="3">
-        <v>2005</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1136</v>
-      </c>
-      <c r="J37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" t="str">
+      <c r="H37" s="9">
+        <v>2047</v>
+      </c>
+      <c r="I37" s="8">
+        <v>7624</v>
+      </c>
+      <c r="J37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H37,"&amp;pw=",I37)</f>
-        <v>https://yeweon-junghoon.com/?id=2005&amp;pw=1136</v>
+        <v>https://yeweon-junghoon.com/?id=2047&amp;pw=7624</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
+      <c r="E38" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <v>2</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
-      <c r="H38" s="3">
-        <v>2006</v>
-      </c>
-      <c r="I38" s="4">
-        <v>9508</v>
-      </c>
-      <c r="J38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" t="str">
+      <c r="H38" s="9">
+        <v>2048</v>
+      </c>
+      <c r="I38" s="8">
+        <v>6527</v>
+      </c>
+      <c r="J38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H38,"&amp;pw=",I38)</f>
-        <v>https://yeweon-junghoon.com/?id=2006&amp;pw=9508</v>
+        <v>https://yeweon-junghoon.com/?id=2048&amp;pw=6527</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="b">
         <v>1</v>
@@ -2108,36 +2392,34 @@
       <c r="D39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39">
+      <c r="E39" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10">
         <v>1</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
-      <c r="H39" s="3">
-        <v>2016</v>
-      </c>
-      <c r="I39" s="4">
-        <v>7214</v>
-      </c>
-      <c r="J39" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" t="str">
+      <c r="H39" s="9">
+        <v>2050</v>
+      </c>
+      <c r="I39" s="8">
+        <v>4503</v>
+      </c>
+      <c r="J39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H39,"&amp;pw=",I39)</f>
-        <v>https://yeweon-junghoon.com/?id=2016&amp;pw=7214</v>
+        <v>https://yeweon-junghoon.com/?id=2050&amp;pw=4503</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="1" t="b">
         <v>1</v>
       </c>
@@ -2145,537 +2427,539 @@
         <v>0</v>
       </c>
       <c r="D40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E40" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40" s="3">
-        <v>2021</v>
-      </c>
-      <c r="I40" s="4">
-        <v>5872</v>
-      </c>
-      <c r="J40" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" t="str">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1000</v>
+      </c>
+      <c r="J40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H40,"&amp;pw=",I40)</f>
-        <v>https://yeweon-junghoon.com/?id=2021&amp;pw=5872</v>
+        <v>https://yeweon-junghoon.com/?id=1000&amp;pw=1000</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B41" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41">
+      <c r="E41" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
         <v>1</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
-      <c r="H41" s="3">
-        <v>2022</v>
-      </c>
-      <c r="I41" s="4">
-        <v>4947</v>
-      </c>
-      <c r="J41" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" t="str">
+      <c r="H41" s="9">
+        <v>2001</v>
+      </c>
+      <c r="I41" s="8">
+        <v>2979</v>
+      </c>
+      <c r="J41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H41,"&amp;pw=",I41)</f>
-        <v>https://yeweon-junghoon.com/?id=2022&amp;pw=4947</v>
+        <v>https://yeweon-junghoon.com/?id=2001&amp;pw=2979</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B42" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
+      <c r="E42" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
-      <c r="H42" s="3">
-        <v>2023</v>
-      </c>
-      <c r="I42" s="4">
-        <v>8724</v>
-      </c>
-      <c r="J42" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="str">
+      <c r="H42" s="9">
+        <v>2002</v>
+      </c>
+      <c r="I42" s="8">
+        <v>7521</v>
+      </c>
+      <c r="J42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H42,"&amp;pw=",I42)</f>
-        <v>https://yeweon-junghoon.com/?id=2023&amp;pw=8724</v>
+        <v>https://yeweon-junghoon.com/?id=2002&amp;pw=7521</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B43" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
         <v>1</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
-      <c r="H43" s="3">
-        <v>2024</v>
-      </c>
-      <c r="I43" s="4">
-        <v>2515</v>
-      </c>
-      <c r="J43" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" t="str">
+      <c r="H43" s="9">
+        <v>2003</v>
+      </c>
+      <c r="I43" s="8">
+        <v>6518</v>
+      </c>
+      <c r="J43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H43,"&amp;pw=",I43)</f>
-        <v>https://yeweon-junghoon.com/?id=2024&amp;pw=2515</v>
+        <v>https://yeweon-junghoon.com/?id=2003&amp;pw=6518</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="E44" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10">
         <v>1</v>
       </c>
       <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2030</v>
-      </c>
-      <c r="I44" s="4">
-        <v>2276</v>
-      </c>
-      <c r="J44" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" t="str">
+        <v>3</v>
+      </c>
+      <c r="H44" s="9">
+        <v>2004</v>
+      </c>
+      <c r="I44" s="8">
+        <v>2544</v>
+      </c>
+      <c r="J44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H44,"&amp;pw=",I44)</f>
-        <v>https://yeweon-junghoon.com/?id=2030&amp;pw=2276</v>
+        <v>https://yeweon-junghoon.com/?id=2004&amp;pw=2544</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E45" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
-      <c r="H45" s="3">
-        <v>2033</v>
-      </c>
-      <c r="I45" s="4">
-        <v>4408</v>
-      </c>
-      <c r="J45" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="str">
+      <c r="H45" s="9">
+        <v>2005</v>
+      </c>
+      <c r="I45" s="8">
+        <v>1136</v>
+      </c>
+      <c r="J45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H45,"&amp;pw=",I45)</f>
-        <v>https://yeweon-junghoon.com/?id=2033&amp;pw=4408</v>
+        <v>https://yeweon-junghoon.com/?id=2005&amp;pw=1136</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B46" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46">
+      <c r="E46" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10">
         <v>1</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
-      <c r="H46" s="3">
-        <v>2034</v>
-      </c>
-      <c r="I46" s="4">
-        <v>6838</v>
-      </c>
-      <c r="J46" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" t="str">
+      <c r="H46" s="9">
+        <v>2006</v>
+      </c>
+      <c r="I46" s="8">
+        <v>9508</v>
+      </c>
+      <c r="J46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H46,"&amp;pw=",I46)</f>
-        <v>https://yeweon-junghoon.com/?id=2034&amp;pw=6838</v>
+        <v>https://yeweon-junghoon.com/?id=2006&amp;pw=9508</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B47" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47">
+      <c r="E47" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="10">
         <v>1</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
-      <c r="H47" s="3">
-        <v>2036</v>
-      </c>
-      <c r="I47" s="4">
-        <v>4805</v>
-      </c>
-      <c r="J47" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" t="str">
+      <c r="H47" s="9">
+        <v>2007</v>
+      </c>
+      <c r="I47" s="8">
+        <v>6314</v>
+      </c>
+      <c r="J47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H47,"&amp;pw=",I47)</f>
-        <v>https://yeweon-junghoon.com/?id=2036&amp;pw=4805</v>
+        <v>https://yeweon-junghoon.com/?id=2007&amp;pw=6314</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48">
+      <c r="E48" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="10">
         <v>1</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
-      <c r="H48" s="3">
-        <v>2037</v>
-      </c>
-      <c r="I48" s="4">
-        <v>2889</v>
-      </c>
-      <c r="J48" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="str">
+      <c r="H48" s="9">
+        <v>2008</v>
+      </c>
+      <c r="I48" s="8">
+        <v>6594</v>
+      </c>
+      <c r="J48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H48,"&amp;pw=",I48)</f>
-        <v>https://yeweon-junghoon.com/?id=2037&amp;pw=2889</v>
+        <v>https://yeweon-junghoon.com/?id=2008&amp;pw=6594</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B49" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="10">
         <v>1</v>
       </c>
       <c r="G49">
         <v>2</v>
       </c>
-      <c r="H49" s="3">
-        <v>2038</v>
-      </c>
-      <c r="I49" s="4">
-        <v>7970</v>
-      </c>
-      <c r="J49" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" t="str">
+      <c r="H49" s="9">
+        <v>2014</v>
+      </c>
+      <c r="I49" s="8">
+        <v>9891</v>
+      </c>
+      <c r="J49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H49,"&amp;pw=",I49)</f>
-        <v>https://yeweon-junghoon.com/?id=2038&amp;pw=7970</v>
+        <v>https://yeweon-junghoon.com/?id=2014&amp;pw=9891</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B50" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
+      <c r="E50" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10">
+        <v>1</v>
       </c>
       <c r="G50">
         <v>2</v>
       </c>
-      <c r="H50" s="3">
-        <v>2045</v>
-      </c>
-      <c r="I50" s="4">
-        <v>1261</v>
-      </c>
-      <c r="J50" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="str">
+      <c r="H50" s="9">
+        <v>2015</v>
+      </c>
+      <c r="I50" s="8">
+        <v>2492</v>
+      </c>
+      <c r="J50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H50,"&amp;pw=",I50)</f>
-        <v>https://yeweon-junghoon.com/?id=2045&amp;pw=1261</v>
+        <v>https://yeweon-junghoon.com/?id=2015&amp;pw=2492</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B51" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10">
         <v>2</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
-      <c r="H51" s="3">
-        <v>2048</v>
-      </c>
-      <c r="I51" s="4">
-        <v>6527</v>
-      </c>
-      <c r="J51" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" t="str">
+      <c r="H51" s="9">
+        <v>2017</v>
+      </c>
+      <c r="I51" s="8">
+        <v>4078</v>
+      </c>
+      <c r="J51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H51,"&amp;pw=",I51)</f>
-        <v>https://yeweon-junghoon.com/?id=2048&amp;pw=6527</v>
+        <v>https://yeweon-junghoon.com/?id=2017&amp;pw=4078</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B52" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="10">
         <v>1</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
-      <c r="H52" s="3">
-        <v>2050</v>
-      </c>
-      <c r="I52" s="4">
-        <v>4503</v>
-      </c>
-      <c r="J52" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K52" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" t="str">
+      <c r="H52" s="9">
+        <v>2028</v>
+      </c>
+      <c r="I52" s="8">
+        <v>8396</v>
+      </c>
+      <c r="J52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H52,"&amp;pw=",I52)</f>
-        <v>https://yeweon-junghoon.com/?id=2050&amp;pw=4503</v>
+        <v>https://yeweon-junghoon.com/?id=2028&amp;pw=8396</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B53" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
+      <c r="E53" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10">
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I53" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J53" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K53" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" t="str">
+        <v>2</v>
+      </c>
+      <c r="H53" s="9">
+        <v>2049</v>
+      </c>
+      <c r="I53" s="8">
+        <v>2925</v>
+      </c>
+      <c r="J53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H53,"&amp;pw=",I53)</f>
-        <v>https://yeweon-junghoon.com/?id=1000&amp;pw=1000</v>
+        <v>https://yeweon-junghoon.com/?id=2049&amp;pw=2925</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2689,37 +2973,414 @@
       <c r="D54" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54">
+      <c r="E54" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="10">
         <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="10">
         <v>1001</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="8">
         <v>1001</v>
       </c>
-      <c r="J54" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K54" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" t="str">
+      <c r="J54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="10" t="str">
         <f>_xlfn.CONCAT("https://yeweon-junghoon.com/","?id=",H54,"&amp;pw=",I54)</f>
         <v>https://yeweon-junghoon.com/?id=1001&amp;pw=1001</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L54">
-    <sortCondition ref="B1:B54"/>
+    <sortCondition ref="C1:C54"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{963CEA0F-ECA3-A340-B893-37F67B1C154C}">
+          <x14:formula1>
+            <xm:f>values!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B54 D2:E54 J2:K54</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{06190051-D05A-B540-AC3A-1595EE5D9B5A}">
+          <x14:formula1>
+            <xm:f>values!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C54</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF48F3D-78CA-E947-8084-BE5D4D0F3454}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F508A89-F3BE-2545-AE06-79131191660A}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>